--- a/biology/Zoologie/Armadillidium_maculatum/Armadillidium_maculatum.xlsx
+++ b/biology/Zoologie/Armadillidium_maculatum/Armadillidium_maculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armadillidium maculatum est une espèce de cloportes de la famille des Armadillidiidae localisée du Var (France) à la province d'Imperia en Ligurie (Italie).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (24 mars 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (24 mars 2023) :
 Armadillidium maculatum cingendum Verhoeff, 1910
 Armadillidium maculatum maculatum (Risso, 1816)</t>
         </is>
@@ -569,11 +585,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillidium maculatum (Risso, 1816)[1].
-L'espèce a été initialement classée dans le genre Armadillo sous le protonyme Armadillo maculatus Risso, 1816[1],[2].
-Armadillidium maculatum a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillidium maculatum (Risso, 1816).
+L'espèce a été initialement classée dans le genre Armadillo sous le protonyme Armadillo maculatus Risso, 1816,.
+Armadillidium maculatum a pour synonymes :
 Armadillidium trianguliferum Stein, 1859
 Armadillidium willii (C.Koch, 1844)
 Armadillo maculatus Risso, 1816
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>A. Risso et Risso, A. (Antoine), 1777-1845, Histoire naturelle des crustacés des environs de Nice, Paris, Librairie grecque-latine-allemande, 1816, 206 p. (OCLC 1557786, DOI 10.5962/BHL.TITLE.8992, lire en ligne)</t>
         </is>
